--- a/biology/Médecine/Pythiose/Pythiose.xlsx
+++ b/biology/Médecine/Pythiose/Pythiose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pythiose est une maladie humaine et vétérinaire rare. Elle est causée par une ingestion de moisissures aqueuses causées par l'espèce d'oomycètes Pythium insidiosum[1].
-L'étude de chevaux affectés en Égypte a montré « des lésions unifocales ou multiples sur l'abdomen, les membres, la poitrine, la tête et les glandes mammaires »[1]. L'examen par histopathologie a révélé « une réaction granulomateuse, une endothéliose des vaisseaux sanguins, une forte infiltration d'éosinophiles dans la couche dermique, une nécrose multifocale et un phénomène de Splendore-Hoeppli »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pythiose est une maladie humaine et vétérinaire rare. Elle est causée par une ingestion de moisissures aqueuses causées par l'espèce d'oomycètes Pythium insidiosum.
+L'étude de chevaux affectés en Égypte a montré « des lésions unifocales ou multiples sur l'abdomen, les membres, la poitrine, la tête et les glandes mammaires ». L'examen par histopathologie a révélé « une réaction granulomateuse, une endothéliose des vaisseaux sanguins, une forte infiltration d'éosinophiles dans la couche dermique, une nécrose multifocale et un phénomène de Splendore-Hoeppli ».
 </t>
         </is>
       </c>
